--- a/R/assets/Data Total.xlsx
+++ b/R/assets/Data Total.xlsx
@@ -158,7 +158,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -567,7 +567,7 @@
     <col min="26" max="26" style="12" width="8.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -709,7 +709,7 @@
         <v>91.5</v>
       </c>
       <c r="U2" s="7">
-        <v>13.55</v>
+        <v>25.55</v>
       </c>
       <c r="V2" s="7">
         <v>290.27000000000004</v>
@@ -727,7 +727,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -789,7 +789,7 @@
         <v>84.5</v>
       </c>
       <c r="U3" s="7">
-        <v>13.26</v>
+        <v>28.26</v>
       </c>
       <c r="V3" s="7">
         <v>319.69</v>
@@ -807,7 +807,7 @@
         <v>14.53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -869,7 +869,7 @@
         <v>87.25</v>
       </c>
       <c r="U4" s="7">
-        <v>13.09</v>
+        <v>24.59</v>
       </c>
       <c r="V4" s="7">
         <v>312.30999999999995</v>
@@ -887,7 +887,7 @@
         <v>12.65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -949,7 +949,7 @@
         <v>90.25</v>
       </c>
       <c r="U5" s="7">
-        <v>14.86</v>
+        <v>25.86</v>
       </c>
       <c r="V5" s="7">
         <v>328.06</v>
@@ -967,7 +967,7 @@
         <v>21.92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>66.25</v>
       </c>
       <c r="U6" s="8">
-        <v>12</v>
+        <v>27.89</v>
       </c>
       <c r="V6" s="7">
         <v>309.08000000000004</v>
@@ -1047,7 +1047,7 @@
         <v>22.68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -1109,10 +1109,10 @@
         <v>55.5</v>
       </c>
       <c r="U7" s="7">
-        <v>10.87</v>
+        <v>27.87</v>
       </c>
       <c r="V7" s="7">
-        <v>246.70000000000005</v>
+        <v>246.7</v>
       </c>
       <c r="W7" s="7">
         <v>9.11</v>
@@ -1127,7 +1127,7 @@
         <v>22.51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>88</v>
       </c>
       <c r="U8" s="7">
-        <v>15.3</v>
+        <v>25.3</v>
       </c>
       <c r="V8" s="7">
         <v>366.76</v>
@@ -1207,7 +1207,7 @@
         <v>15.61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>98.75</v>
       </c>
       <c r="U9" s="7">
-        <v>11.89</v>
+        <v>21.89</v>
       </c>
       <c r="V9" s="7">
         <v>260.12</v>
@@ -1287,7 +1287,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>80.5</v>
       </c>
       <c r="U10" s="7">
-        <v>12.04</v>
+        <v>28.04</v>
       </c>
       <c r="V10" s="7">
         <v>272.98999999999995</v>
@@ -1367,7 +1367,7 @@
         <v>12.31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>147.75</v>
       </c>
       <c r="U11" s="7">
-        <v>14.06</v>
+        <v>27.96</v>
       </c>
       <c r="V11" s="7">
         <v>319.37000000000006</v>
@@ -1447,7 +1447,7 @@
         <v>10.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>90.65</v>
       </c>
       <c r="U12" s="7">
-        <v>12.55</v>
+        <v>26.85</v>
       </c>
       <c r="V12" s="7">
         <v>245.45999999999995</v>
@@ -1589,7 +1589,7 @@
         <v>150.75</v>
       </c>
       <c r="U13" s="7">
-        <v>14.23</v>
+        <v>27.93</v>
       </c>
       <c r="V13" s="7">
         <v>291.81</v>
@@ -1669,7 +1669,7 @@
         <v>97.25</v>
       </c>
       <c r="U14" s="7">
-        <v>16.13</v>
+        <v>30.93</v>
       </c>
       <c r="V14" s="7">
         <v>299.95000000000005</v>
@@ -1749,7 +1749,7 @@
         <v>99</v>
       </c>
       <c r="U15" s="7">
-        <v>16.49</v>
+        <v>32.49</v>
       </c>
       <c r="V15" s="7">
         <v>405.84</v>
@@ -1829,7 +1829,7 @@
         <v>100.25</v>
       </c>
       <c r="U16" s="7">
-        <v>16.04</v>
+        <v>31.74</v>
       </c>
       <c r="V16" s="7">
         <v>358.57</v>
@@ -1989,7 +1989,7 @@
         <v>136</v>
       </c>
       <c r="U18" s="7">
-        <v>21.01</v>
+        <v>21.91</v>
       </c>
       <c r="V18" s="7">
         <v>453.6499999999999</v>
@@ -2069,7 +2069,7 @@
         <v>134.52</v>
       </c>
       <c r="U19" s="7">
-        <v>19.56</v>
+        <v>20.56</v>
       </c>
       <c r="V19" s="7">
         <v>461.05000000000007</v>
@@ -2149,7 +2149,7 @@
         <v>164</v>
       </c>
       <c r="U20" s="7">
-        <v>18.66</v>
+        <v>38.66</v>
       </c>
       <c r="V20" s="7">
         <v>455.6100000000001</v>
@@ -2229,10 +2229,10 @@
         <v>133</v>
       </c>
       <c r="U21" s="7">
-        <v>16.58</v>
+        <v>36.58</v>
       </c>
       <c r="V21" s="7">
-        <v>394.28999999999996</v>
+        <v>427.13</v>
       </c>
       <c r="W21" s="7">
         <v>6.99</v>
@@ -2309,10 +2309,10 @@
         <v>118.25</v>
       </c>
       <c r="U22" s="7">
-        <v>13.32</v>
+        <v>39.32</v>
       </c>
       <c r="V22" s="7">
-        <v>292.98</v>
+        <v>476.83</v>
       </c>
       <c r="W22" s="7">
         <v>6.57</v>
@@ -2389,7 +2389,7 @@
         <v>163.5</v>
       </c>
       <c r="U23" s="7">
-        <v>22.2</v>
+        <v>29.86</v>
       </c>
       <c r="V23" s="7">
         <v>498.14000000000004</v>
@@ -2469,7 +2469,7 @@
         <v>107.5</v>
       </c>
       <c r="U24" s="7">
-        <v>12.37</v>
+        <v>32.57</v>
       </c>
       <c r="V24" s="7">
         <v>278.22999999999996</v>
@@ -2549,7 +2549,7 @@
         <v>102.5</v>
       </c>
       <c r="U25" s="7">
-        <v>13.23</v>
+        <v>34.53</v>
       </c>
       <c r="V25" s="7">
         <v>304.15000000000003</v>
@@ -2629,7 +2629,7 @@
         <v>76.75</v>
       </c>
       <c r="U26" s="7">
-        <v>10.53</v>
+        <v>15.53</v>
       </c>
       <c r="V26" s="7">
         <v>230.16999999999996</v>
@@ -2709,7 +2709,7 @@
         <v>84.25</v>
       </c>
       <c r="U27" s="7">
-        <v>12.12</v>
+        <v>17.12</v>
       </c>
       <c r="V27" s="7">
         <v>287.7</v>
@@ -2869,7 +2869,7 @@
         <v>82.75</v>
       </c>
       <c r="U29" s="7">
-        <v>12.46</v>
+        <v>31.46</v>
       </c>
       <c r="V29" s="7">
         <v>283.14</v>
@@ -2949,7 +2949,7 @@
         <v>91.5</v>
       </c>
       <c r="U30" s="7">
-        <v>12.59</v>
+        <v>28.79</v>
       </c>
       <c r="V30" s="7">
         <v>292.2100000000001</v>
@@ -3029,7 +3029,7 @@
         <v>83</v>
       </c>
       <c r="U31" s="7">
-        <v>13.5</v>
+        <v>29.93</v>
       </c>
       <c r="V31" s="7">
         <v>304.91</v>
@@ -3109,7 +3109,7 @@
         <v>93.45</v>
       </c>
       <c r="U32" s="7">
-        <v>15.05</v>
+        <v>35.05</v>
       </c>
       <c r="V32" s="7">
         <v>320.8700000000001</v>
@@ -3189,7 +3189,7 @@
         <v>107.5</v>
       </c>
       <c r="U33" s="7">
-        <v>11.72</v>
+        <v>31.72</v>
       </c>
       <c r="V33" s="7">
         <v>274.03</v>
@@ -3269,7 +3269,7 @@
         <v>97.54</v>
       </c>
       <c r="U34" s="7">
-        <v>8.85</v>
+        <v>38.85</v>
       </c>
       <c r="V34" s="7">
         <v>196.07</v>
@@ -3349,7 +3349,7 @@
         <v>103.4</v>
       </c>
       <c r="U35" s="7">
-        <v>17.48</v>
+        <v>29.48</v>
       </c>
       <c r="V35" s="7">
         <v>391.0099999999999</v>
@@ -3429,7 +3429,7 @@
         <v>93.15</v>
       </c>
       <c r="U36" s="7">
-        <v>15.78</v>
+        <v>29.78</v>
       </c>
       <c r="V36" s="7">
         <v>287.65</v>
@@ -3509,7 +3509,7 @@
         <v>98.45</v>
       </c>
       <c r="U37" s="7">
-        <v>17.2</v>
+        <v>29.92</v>
       </c>
       <c r="V37" s="7">
         <v>322.61</v>

--- a/R/assets/Data Total.xlsx
+++ b/R/assets/Data Total.xlsx
@@ -1527,7 +1527,7 @@
         <v>10.39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>10.33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>18.15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>18.32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>20.21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>22.76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>20.51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>12.46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>13.01</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="5" t="s">
         <v>32</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>11.58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>16.32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="5" t="s">
         <v>33</v>
       </c>

--- a/R/assets/Data Total.xlsx
+++ b/R/assets/Data Total.xlsx
@@ -1912,7 +1912,7 @@
         <v>19.04</v>
       </c>
       <c r="V17" s="7">
-        <v>408.89000000000004</v>
+        <v>455.61</v>
       </c>
       <c r="W17" s="7">
         <v>8.17</v>
@@ -1992,7 +1992,7 @@
         <v>21.91</v>
       </c>
       <c r="V18" s="7">
-        <v>453.6499999999999</v>
+        <v>427.13</v>
       </c>
       <c r="W18" s="7">
         <v>8.3</v>
@@ -2072,7 +2072,7 @@
         <v>20.56</v>
       </c>
       <c r="V19" s="7">
-        <v>461.05000000000007</v>
+        <v>476.83</v>
       </c>
       <c r="W19" s="7">
         <v>8.35</v>
@@ -2152,7 +2152,7 @@
         <v>38.66</v>
       </c>
       <c r="V20" s="7">
-        <v>455.6100000000001</v>
+        <v>408.89</v>
       </c>
       <c r="W20" s="7">
         <v>6.74</v>
@@ -2232,7 +2232,7 @@
         <v>36.58</v>
       </c>
       <c r="V21" s="7">
-        <v>427.13</v>
+        <v>453.65</v>
       </c>
       <c r="W21" s="7">
         <v>6.99</v>
@@ -2312,7 +2312,7 @@
         <v>39.32</v>
       </c>
       <c r="V22" s="7">
-        <v>476.83</v>
+        <v>461.05</v>
       </c>
       <c r="W22" s="7">
         <v>6.57</v>
@@ -2487,7 +2487,7 @@
         <v>18.63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="5" t="s">
         <v>33</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>17.44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>12.45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>13.87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
       <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>13.59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>17.54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>16.45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>14.24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
       <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>14.27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
       <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
       <c r="A36" s="5" t="s">
         <v>37</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
